--- a/data/second_stage/df_to_rev_coder3.xlsx
+++ b/data/second_stage/df_to_rev_coder3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/ruben_lopez15_um_es/Documents/FPU2018/Tesis/Drafts/Paper 2/Project/data/second_stage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/rlopez_um_es/Documents/FPU2018/meta-analyses_reproducibility/data/second_stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_B892CDEFBAB13F7EF73201E2B2AB58F99CA487F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1429FE-27E3-4B04-B581-7C9220339147}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D9969C21-04C3-4BF2-A785-B7574EAA8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C9FC4E9-D432-487D-90E4-496748D13618}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="136">
   <si>
     <t>order</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>rep</t>
+  </si>
+  <si>
+    <t>ma_x</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in upper confidence limit. This difference (0.016) was considered not relevant.</t>
   </si>
 </sst>
 </file>
@@ -481,6 +490,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,15 +775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AY13" sqref="AY13"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,64 +884,70 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>121</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>122</v>
       </c>
+      <c r="BA1" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -997,64 +1019,67 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
         <v>0.32</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>13</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.254</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>0.34599999999999997</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2.8759999999999999</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>48.250999999999998</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>75.13</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-1.6</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>-8.1249999999999893</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-0.12999999999999501</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>60</v>
       </c>
       <c r="AU2" t="s">
         <v>60</v>
       </c>
       <c r="AV2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>123</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -1132,64 +1157,67 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AG3">
+        <v>56</v>
+      </c>
+      <c r="AH3">
         <v>0.46</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>11</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.25600000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.52100000000000002</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.01</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.53</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-1.8879999999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>25.08</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>59.530999999999999</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>8.5714285714285801</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-15.2173913043478</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-7.931</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>74</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>61</v>
       </c>
       <c r="AW3" t="s">
         <v>61</v>
       </c>
       <c r="AX3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY3" t="s">
         <v>125</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
@@ -1267,64 +1295,67 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AG4">
+        <v>57</v>
+      </c>
+      <c r="AH4">
         <v>0.38</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>12</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-0.32400000000000001</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-1.371</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>15.154</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>34.228000000000002</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>5</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>-0.52631578947368496</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>4.1719999999999997</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>74</v>
       </c>
       <c r="AU4" t="s">
         <v>74</v>
       </c>
       <c r="AV4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW4" t="s">
         <v>61</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>62</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>125</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19</v>
       </c>
@@ -1402,64 +1433,67 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AG5">
+        <v>58</v>
+      </c>
+      <c r="AH5">
         <v>0.35</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>14</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.11</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.29399999999999998</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.36799999999999999</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1.1759999999999999</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>21.24</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>41.204999999999998</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>21.428571428571399</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-5.1428571428571503</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.79500000000000204</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>74</v>
       </c>
       <c r="AU5" t="s">
         <v>74</v>
       </c>
       <c r="AV5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW5" t="s">
         <v>61</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>62</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>127</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1537,64 +1571,67 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AG6">
+        <v>60</v>
+      </c>
+      <c r="AH6">
         <v>0.4</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>16</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-0.51900000000000002</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-0.70399999999999996</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-0.33300000000000002</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.372</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-5.47</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>27.69</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>45.814999999999998</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-3.8</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>7.0000000000000098</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>10.685</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>60</v>
       </c>
       <c r="AU6" t="s">
         <v>60</v>
       </c>
       <c r="AV6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="s">
         <v>61</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>62</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>125</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1663,61 +1700,64 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AG7">
+        <v>88</v>
+      </c>
+      <c r="AH7">
         <v>0.41</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>34</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1.7330000000000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1.5149999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1.9510000000000001</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0.436</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>15.584</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>240.84700000000001</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>86.298000000000002</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>-2.5443786982248602</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>-6.3414634146341502</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>60</v>
       </c>
       <c r="AU7" t="s">
         <v>60</v>
       </c>
       <c r="AV7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="s">
         <v>61</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>62</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>128</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36</v>
       </c>
@@ -1789,61 +1829,64 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AG8">
+        <v>95</v>
+      </c>
+      <c r="AH8">
         <v>0.5</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>12</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-0.39600000000000002</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-0.19400000000000001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-3.8490000000000002</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>13.478999999999999</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>18.393999999999998</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>-23.75</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>19.399999999999999</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>60</v>
       </c>
       <c r="AU8" t="s">
         <v>60</v>
       </c>
       <c r="AV8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="s">
         <v>61</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>62</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>123</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1918,64 +1961,70 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AG9">
+        <v>101</v>
+      </c>
+      <c r="AH9">
         <v>0.21</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>45</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-2.3E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-0.121</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-0.46400000000000002</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>104.07599999999999</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>57.722999999999999</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>0</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>-130</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>7.1428571428571397</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>3.2770000000000001</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>74</v>
       </c>
       <c r="AU9" t="s">
         <v>74</v>
       </c>
       <c r="AV9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW9" t="s">
         <v>61</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>62</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>129</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>132</v>
       </c>
+      <c r="BA9" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -2050,64 +2099,67 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AG10">
+        <v>179</v>
+      </c>
+      <c r="AH10">
         <v>0.45</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>11</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>0.41299999999999998</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6.8490000000000002</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>12.31</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>18.765000000000001</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>-1</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>-12.8125</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>8.2222222222222303</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>20.234999999999999</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>60</v>
       </c>
       <c r="AU10" t="s">
         <v>60</v>
       </c>
       <c r="AV10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="s">
         <v>61</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>62</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>130</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>84</v>
       </c>
@@ -2185,60 +2237,63 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AG11">
+        <v>185</v>
+      </c>
+      <c r="AH11">
         <v>0.44</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>24</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-0.54300000000000004</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-0.67700000000000005</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-0.40799999999999997</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.26900000000000002</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-7.9059999999999997</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>26.187999999999999</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>12.173999999999999</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>0</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>17.727272727272702</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>161.136363636364</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>50.026000000000003</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>60</v>
       </c>
       <c r="AU11" t="s">
         <v>60</v>
       </c>
       <c r="AV11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="s">
         <v>61</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>62</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>131</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>124</v>
       </c>
     </row>
